--- a/lab2/MedidaAtenuacion_Danielgutierrez.xlsx
+++ b/lab2/MedidaAtenuacion_Danielgutierrez.xlsx
@@ -477,52 +477,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-17.1</c:v>
+                  <c:v>22.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-16.5</c:v>
+                  <c:v>22.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16.5</c:v>
+                  <c:v>22.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-19.5</c:v>
+                  <c:v>19.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-24.7</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-21.9</c:v>
+                  <c:v>17.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-21.9</c:v>
+                  <c:v>17.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-25.8</c:v>
+                  <c:v>13.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-28.2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>12.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>4.10000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30</c:v>
+                  <c:v>0.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>-0.899999999999992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>-5.89999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,52 +649,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-15.9</c:v>
+                  <c:v>23.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-16.5</c:v>
+                  <c:v>22.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-28.5</c:v>
+                  <c:v>10.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-29.8</c:v>
+                  <c:v>9.40000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-24.5</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-20.8</c:v>
+                  <c:v>18.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-22.1</c:v>
+                  <c:v>17.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-29.1</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30</c:v>
+                  <c:v>-0.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>-3.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>-7.89999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,52 +821,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-33.5</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18.8</c:v>
+                  <c:v>20.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-28.8</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-27.8</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-25.6</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-18.2</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-22.6</c:v>
+                  <c:v>16.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-25.9</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>10.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>7.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>5.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,63 +993,63 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>-19.2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-24.6</c:v>
+                  <c:v>14.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-31.6</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-32.9</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-29.1</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-21.7</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-26.2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-31.3</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>5.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>-0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30</c:v>
+                  <c:v>-3.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>-5.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="94510768"/>
-        <c:axId val="95835948"/>
+        <c:axId val="53710362"/>
+        <c:axId val="91795543"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94510768"/>
+        <c:axId val="53710362"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1129,13 +1129,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95835948"/>
+        <c:crossAx val="91795543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95835948"/>
+        <c:axId val="91795543"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1177,8 +1178,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94510768"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="53710362"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1389,25 +1390,25 @@
                   <c:v>-58.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-57.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-60.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-63.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-65.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-68.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-70.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-75.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1558,28 +1559,28 @@
                   <c:v>-49.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>-44.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>-47.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>-50.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>-54.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>-56.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10</c:v>
+                  <c:v>-60.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>-62.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>-67.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,28 +1731,28 @@
                   <c:v>-35.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>-35.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>-38.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>-41.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>-44.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>-47.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20</c:v>
+                  <c:v>-50.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>-53.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>-59.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,40 +1903,41 @@
                   <c:v>-31.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>-28.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>-31.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>-34.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>-37.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30</c:v>
+                  <c:v>-39.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30</c:v>
+                  <c:v>-42.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>-45.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30</c:v>
+                  <c:v>-50.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="8766552"/>
-        <c:axId val="35746280"/>
+        <c:axId val="65406752"/>
+        <c:axId val="76914806"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8766552"/>
+        <c:axId val="65406752"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
         </c:scaling>
@@ -2014,13 +2016,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35746280"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="76914806"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35746280"/>
+        <c:axId val="76914806"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2098,8 +2101,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8766552"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="65406752"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2164,9 +2167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>12240</xdr:colOff>
+      <xdr:colOff>11880</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2174,8 +2177,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7169760" y="4790880"/>
-        <a:ext cx="7257600" cy="5276520"/>
+        <a:off x="7169040" y="4790880"/>
+        <a:ext cx="7257240" cy="5276160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2194,9 +2197,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2205,7 +2208,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="860040" y="4924440"/>
-        <a:ext cx="4809600" cy="4885920"/>
+        <a:ext cx="4808520" cy="4885560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2223,13 +2226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -2348,19 +2351,19 @@
       </c>
       <c r="H5" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B5)</f>
-        <v>-17.1</v>
+        <v>22.1</v>
       </c>
       <c r="I5" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C5)</f>
-        <v>-15.9</v>
+        <v>23.3</v>
       </c>
       <c r="J5" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D5)</f>
-        <v>-33.5</v>
+        <v>5.7</v>
       </c>
       <c r="K5" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E5)</f>
-        <v>-19.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2385,19 +2388,19 @@
       </c>
       <c r="H6" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B6)</f>
-        <v>-16.5</v>
+        <v>22.7</v>
       </c>
       <c r="I6" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C6)</f>
-        <v>-16.5</v>
+        <v>22.7</v>
       </c>
       <c r="J6" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D6)</f>
-        <v>-18.8</v>
+        <v>20.4</v>
       </c>
       <c r="K6" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E6)</f>
-        <v>-24.6</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2422,19 +2425,19 @@
       </c>
       <c r="H7" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B7)</f>
-        <v>-16.5</v>
+        <v>22.7</v>
       </c>
       <c r="I7" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C7)</f>
-        <v>-28.5</v>
+        <v>10.7</v>
       </c>
       <c r="J7" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D7)</f>
-        <v>-28.8</v>
+        <v>10.4</v>
       </c>
       <c r="K7" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E7)</f>
-        <v>-31.6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2459,19 +2462,19 @@
       </c>
       <c r="H8" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B8)</f>
-        <v>-19.5</v>
+        <v>19.7</v>
       </c>
       <c r="I8" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C8)</f>
-        <v>-29.8</v>
+        <v>9.40000000000001</v>
       </c>
       <c r="J8" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D8)</f>
-        <v>-27.8</v>
+        <v>11.4</v>
       </c>
       <c r="K8" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E8)</f>
-        <v>-32.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2496,19 +2499,19 @@
       </c>
       <c r="H9" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B9)</f>
-        <v>-24.7</v>
+        <v>14.5</v>
       </c>
       <c r="I9" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C9)</f>
-        <v>-24.5</v>
+        <v>14.7</v>
       </c>
       <c r="J9" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D9)</f>
-        <v>-25.6</v>
+        <v>13.6</v>
       </c>
       <c r="K9" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E9)</f>
-        <v>-29.1</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2533,19 +2536,19 @@
       </c>
       <c r="H10" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B10)</f>
-        <v>-21.9</v>
+        <v>17.3</v>
       </c>
       <c r="I10" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C10)</f>
-        <v>-20.8</v>
+        <v>18.4</v>
       </c>
       <c r="J10" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D10)</f>
-        <v>-18.2</v>
+        <v>21</v>
       </c>
       <c r="K10" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E10)</f>
-        <v>-21.7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2570,19 +2573,19 @@
       </c>
       <c r="H11" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B11)</f>
-        <v>-21.9</v>
+        <v>17.3</v>
       </c>
       <c r="I11" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C11)</f>
-        <v>-22.1</v>
+        <v>17.1</v>
       </c>
       <c r="J11" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D11)</f>
-        <v>-22.6</v>
+        <v>16.6</v>
       </c>
       <c r="K11" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E11)</f>
-        <v>-26.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2607,19 +2610,19 @@
       </c>
       <c r="H12" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B12)</f>
-        <v>-25.8</v>
+        <v>13.4</v>
       </c>
       <c r="I12" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C12)</f>
-        <v>-29.1</v>
+        <v>10.1</v>
       </c>
       <c r="J12" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D12)</f>
-        <v>-25.9</v>
+        <v>13.3</v>
       </c>
       <c r="K12" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E12)</f>
-        <v>-31.3</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2630,13 +2633,13 @@
         <v>-58.2</v>
       </c>
       <c r="C13" s="8" t="n">
-        <v>10</v>
+        <v>-44.5</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>20</v>
+        <v>-35.5</v>
       </c>
       <c r="E13" s="8" t="n">
-        <v>30</v>
+        <v>-28.1</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="14" t="n">
@@ -2644,19 +2647,19 @@
       </c>
       <c r="H13" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B13)</f>
-        <v>-28.2</v>
+        <v>11</v>
       </c>
       <c r="I13" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C13)</f>
-        <v>30</v>
+        <v>14.7</v>
       </c>
       <c r="J13" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D13)</f>
-        <v>30</v>
+        <v>13.7</v>
       </c>
       <c r="K13" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E13)</f>
-        <v>30</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2664,16 +2667,16 @@
         <v>500</v>
       </c>
       <c r="B14" s="8" t="n">
-        <v>0</v>
+        <v>-57.1</v>
       </c>
       <c r="C14" s="8" t="n">
-        <v>10</v>
+        <v>-47.7</v>
       </c>
       <c r="D14" s="8" t="n">
-        <v>20</v>
+        <v>-38.5</v>
       </c>
       <c r="E14" s="8" t="n">
-        <v>30</v>
+        <v>-31.6</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="14" t="n">
@@ -2681,19 +2684,19 @@
       </c>
       <c r="H14" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B14)</f>
-        <v>30</v>
+        <v>12.1</v>
       </c>
       <c r="I14" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C14)</f>
-        <v>30</v>
+        <v>11.5</v>
       </c>
       <c r="J14" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D14)</f>
-        <v>30</v>
+        <v>10.7</v>
       </c>
       <c r="K14" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E14)</f>
-        <v>30</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2701,16 +2704,16 @@
         <v>600</v>
       </c>
       <c r="B15" s="8" t="n">
-        <v>0</v>
+        <v>-60.2</v>
       </c>
       <c r="C15" s="8" t="n">
-        <v>10</v>
+        <v>-50.7</v>
       </c>
       <c r="D15" s="8" t="n">
-        <v>20</v>
+        <v>-41.5</v>
       </c>
       <c r="E15" s="8" t="n">
-        <v>30</v>
+        <v>-34.1</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="14" t="n">
@@ -2718,19 +2721,19 @@
       </c>
       <c r="H15" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B15)</f>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I15" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C15)</f>
-        <v>30</v>
+        <v>8.5</v>
       </c>
       <c r="J15" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D15)</f>
-        <v>30</v>
+        <v>7.7</v>
       </c>
       <c r="K15" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E15)</f>
-        <v>30</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2738,16 +2741,16 @@
         <v>700</v>
       </c>
       <c r="B16" s="8" t="n">
-        <v>0</v>
+        <v>-63.1</v>
       </c>
       <c r="C16" s="8" t="n">
-        <v>10</v>
+        <v>-54.4</v>
       </c>
       <c r="D16" s="8" t="n">
-        <v>20</v>
+        <v>-44.1</v>
       </c>
       <c r="E16" s="8" t="n">
-        <v>30</v>
+        <v>-37.2</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="14" t="n">
@@ -2755,19 +2758,19 @@
       </c>
       <c r="H16" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B16)</f>
-        <v>30</v>
+        <v>6.1</v>
       </c>
       <c r="I16" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C16)</f>
-        <v>30</v>
+        <v>4.8</v>
       </c>
       <c r="J16" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D16)</f>
-        <v>30</v>
+        <v>5.1</v>
       </c>
       <c r="K16" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E16)</f>
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2775,16 +2778,16 @@
         <v>800</v>
       </c>
       <c r="B17" s="8" t="n">
-        <v>0</v>
+        <v>-65.1</v>
       </c>
       <c r="C17" s="8" t="n">
-        <v>10</v>
+        <v>-56.4</v>
       </c>
       <c r="D17" s="8" t="n">
-        <v>20</v>
+        <v>-47.1</v>
       </c>
       <c r="E17" s="8" t="n">
-        <v>30</v>
+        <v>-39.2</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="14" t="n">
@@ -2792,19 +2795,19 @@
       </c>
       <c r="H17" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B17)</f>
-        <v>30</v>
+        <v>4.10000000000001</v>
       </c>
       <c r="I17" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C17)</f>
-        <v>30</v>
+        <v>2.8</v>
       </c>
       <c r="J17" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D17)</f>
-        <v>30</v>
+        <v>2.1</v>
       </c>
       <c r="K17" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E17)</f>
-        <v>30</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2812,16 +2815,16 @@
         <v>900</v>
       </c>
       <c r="B18" s="8" t="n">
-        <v>0</v>
+        <v>-68.5</v>
       </c>
       <c r="C18" s="8" t="n">
-        <v>10</v>
+        <v>-60.1</v>
       </c>
       <c r="D18" s="8" t="n">
-        <v>20</v>
+        <v>-50.2</v>
       </c>
       <c r="E18" s="8" t="n">
-        <v>30</v>
+        <v>-42.7</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="14" t="n">
@@ -2829,19 +2832,19 @@
       </c>
       <c r="H18" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B18)</f>
-        <v>30</v>
+        <v>0.700000000000003</v>
       </c>
       <c r="I18" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C18)</f>
-        <v>30</v>
+        <v>-0.899999999999999</v>
       </c>
       <c r="J18" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D18)</f>
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E18)</f>
-        <v>30</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2849,16 +2852,16 @@
         <v>1000</v>
       </c>
       <c r="B19" s="8" t="n">
-        <v>0</v>
+        <v>-70.1</v>
       </c>
       <c r="C19" s="8" t="n">
-        <v>10</v>
+        <v>-62.5</v>
       </c>
       <c r="D19" s="8" t="n">
-        <v>20</v>
+        <v>-53.7</v>
       </c>
       <c r="E19" s="8" t="n">
-        <v>30</v>
+        <v>-45.1</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="14" t="n">
@@ -2866,19 +2869,19 @@
       </c>
       <c r="H19" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B19)</f>
-        <v>30</v>
+        <v>-0.899999999999992</v>
       </c>
       <c r="I19" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C19)</f>
-        <v>30</v>
+        <v>-3.3</v>
       </c>
       <c r="J19" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D19)</f>
-        <v>30</v>
+        <v>-4.5</v>
       </c>
       <c r="K19" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E19)</f>
-        <v>30</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2886,16 +2889,16 @@
         <v>2000</v>
       </c>
       <c r="B20" s="8" t="n">
-        <v>0</v>
+        <v>-75.1</v>
       </c>
       <c r="C20" s="8" t="n">
-        <v>10</v>
+        <v>-67.1</v>
       </c>
       <c r="D20" s="8" t="n">
-        <v>20</v>
+        <v>-59.2</v>
       </c>
       <c r="E20" s="8" t="n">
-        <v>30</v>
+        <v>-50.2</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="14" t="n">
@@ -2903,19 +2906,19 @@
       </c>
       <c r="H20" s="15" t="n">
         <f aca="false">-($B$22+$B$3-$B$23-B20)</f>
-        <v>30</v>
+        <v>-5.89999999999999</v>
       </c>
       <c r="I20" s="15" t="n">
         <f aca="false">-($B$22+$C$3-$B$23-C20)</f>
-        <v>30</v>
+        <v>-7.89999999999999</v>
       </c>
       <c r="J20" s="15" t="n">
         <f aca="false">-($B$22+$D$3-$B$23-D20)</f>
-        <v>30</v>
+        <v>-10</v>
       </c>
       <c r="K20" s="15" t="n">
         <f aca="false">-($B$22+$E$3-$B$23-E20)</f>
-        <v>30</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2926,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="17" t="n">
-        <v>0</v>
+        <v>-39.2</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>11</v>
